--- a/testdata/gulbahar.xlsx
+++ b/testdata/gulbahar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guliabdurahman/IdeaProjects/AdobeMagento_eCommercePlatformTestAutomation/testdata/"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>firstname</t>
   </si>
@@ -90,12 +90,49 @@
   </si>
   <si>
     <t>h2yr3chm4</t>
+  </si>
+  <si>
+    <t>Hertha</t>
+  </si>
+  <si>
+    <t>Wuckert</t>
+  </si>
+  <si>
+    <t>kirsten.daugherty@yahoo.com</t>
+  </si>
+  <si>
+    <t>vuu4je3b1</t>
+  </si>
+  <si>
+    <t>Wm</t>
+  </si>
+  <si>
+    <t>Friesen</t>
+  </si>
+  <si>
+    <t>tiffani.hodkiewicz@gmail.com</t>
+  </si>
+  <si>
+    <t>yu2ltxuf1</t>
+  </si>
+  <si>
+    <t>Quyen</t>
+  </si>
+  <si>
+    <t>Gutkowski</t>
+  </si>
+  <si>
+    <t>morgan.hilpert@gmail.com</t>
+  </si>
+  <si>
+    <t>bn8k5kjo0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,10 +460,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0"/>
+    <col min="2" max="2" customWidth="true" width="17.83203125"/>
+    <col min="3" max="3" customWidth="true" width="27.33203125"/>
+    <col min="4" max="4" customWidth="true" width="29.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -457,18 +494,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -486,11 +523,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625"/>
+    <col min="2" max="2" customWidth="true" width="41.6640625"/>
+    <col min="3" max="3" customWidth="true" style="2" width="44.33203125"/>
+    <col min="4" max="4" customWidth="true" width="37.33203125"/>
+    <col min="5" max="5" customWidth="true" width="30.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -552,9 +589,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="25.5"/>
+    <col min="2" max="2" customWidth="true" width="20.5"/>
+    <col min="3" max="3" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">

--- a/testdata/gulbahar.xlsx
+++ b/testdata/gulbahar.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>firstname</t>
   </si>
@@ -126,6 +126,42 @@
   </si>
   <si>
     <t>bn8k5kjo0</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Grady</t>
+  </si>
+  <si>
+    <t>marco.bahringer@yahoo.com</t>
+  </si>
+  <si>
+    <t>skv6m0q</t>
+  </si>
+  <si>
+    <t>Helene</t>
+  </si>
+  <si>
+    <t>Trantow</t>
+  </si>
+  <si>
+    <t>paige.herzog@gmail.com</t>
+  </si>
+  <si>
+    <t>ajbob96k</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Cassin</t>
+  </si>
+  <si>
+    <t>quentin.fay@yahoo.com</t>
+  </si>
+  <si>
+    <t>6sqf4xv</t>
   </si>
 </sst>
 </file>
@@ -496,16 +532,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/gulbahar.xlsx
+++ b/testdata/gulbahar.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guliabdurahman/IdeaProjects/AdobeMagento_eCommercePlatformTestAutomation/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58422186-273B-9443-98D5-AF5FD3D7792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13B621-D8C6-1F45-B79E-25EE5C501341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="3520" windowWidth="19200" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="940" windowWidth="19200" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customerInfo" sheetId="3" r:id="rId1"/>
     <sheet name="productsInfo" sheetId="4" r:id="rId2"/>
-    <sheet name="productInfo2" sheetId="5" r:id="rId3"/>
+    <sheet name="customerManager" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>firstname</t>
   </si>
@@ -80,78 +80,6 @@
     <t>MP3 Player with Audio</t>
   </si>
   <si>
-    <t>Sammy</t>
-  </si>
-  <si>
-    <t>Mueller</t>
-  </si>
-  <si>
-    <t>howard.feil@gmail.com</t>
-  </si>
-  <si>
-    <t>h2yr3chm4</t>
-  </si>
-  <si>
-    <t>Hertha</t>
-  </si>
-  <si>
-    <t>Wuckert</t>
-  </si>
-  <si>
-    <t>kirsten.daugherty@yahoo.com</t>
-  </si>
-  <si>
-    <t>vuu4je3b1</t>
-  </si>
-  <si>
-    <t>Wm</t>
-  </si>
-  <si>
-    <t>Friesen</t>
-  </si>
-  <si>
-    <t>tiffani.hodkiewicz@gmail.com</t>
-  </si>
-  <si>
-    <t>yu2ltxuf1</t>
-  </si>
-  <si>
-    <t>Quyen</t>
-  </si>
-  <si>
-    <t>Gutkowski</t>
-  </si>
-  <si>
-    <t>morgan.hilpert@gmail.com</t>
-  </si>
-  <si>
-    <t>bn8k5kjo0</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Grady</t>
-  </si>
-  <si>
-    <t>marco.bahringer@yahoo.com</t>
-  </si>
-  <si>
-    <t>skv6m0q</t>
-  </si>
-  <si>
-    <t>Helene</t>
-  </si>
-  <si>
-    <t>Trantow</t>
-  </si>
-  <si>
-    <t>paige.herzog@gmail.com</t>
-  </si>
-  <si>
-    <t>ajbob96k</t>
-  </si>
-  <si>
     <t>Matthew</t>
   </si>
   <si>
@@ -162,13 +90,57 @@
   </si>
   <si>
     <t>6sqf4xv</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>groupname</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>WelcomeEmail</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>Gordan</t>
+  </si>
+  <si>
+    <t>Jassie</t>
+  </si>
+  <si>
+    <t>jessie@gmail.com</t>
+  </si>
+  <si>
+    <t>Senem</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>10/18/2000</t>
+  </si>
+  <si>
+    <t>useCalender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,16 +462,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0"/>
-    <col min="2" max="2" customWidth="true" width="17.83203125"/>
-    <col min="3" max="3" customWidth="true" width="27.33203125"/>
-    <col min="4" max="4" customWidth="true" width="29.1640625"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -530,18 +502,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -559,11 +531,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625"/>
-    <col min="2" max="2" customWidth="true" width="41.6640625"/>
-    <col min="3" max="3" customWidth="true" style="2" width="44.33203125"/>
-    <col min="4" max="4" customWidth="true" width="37.33203125"/>
-    <col min="5" max="5" customWidth="true" width="30.0"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -617,28 +589,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF55836-3148-6446-A726-A223595C7CAA}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.5"/>
-    <col min="2" max="2" customWidth="true" width="20.5"/>
-    <col min="3" max="3" customWidth="true" width="18.0"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>1234567</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/gulbahar.xlsx
+++ b/testdata/gulbahar.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guliabdurahman/IdeaProjects/AdobeMagento_eCommercePlatformTestAutomation/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13B621-D8C6-1F45-B79E-25EE5C501341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED1FB6-D772-F047-8A17-D4CF3BBCBE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="940" windowWidth="19200" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="940" windowWidth="19200" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customerInfo" sheetId="3" r:id="rId1"/>
     <sheet name="productsInfo" sheetId="4" r:id="rId2"/>
     <sheet name="customerManager" sheetId="5" r:id="rId3"/>
+    <sheet name="storeModule" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>firstname</t>
   </si>
@@ -135,12 +136,49 @@
   </si>
   <si>
     <t>useCalender</t>
+  </si>
+  <si>
+    <t>store name</t>
+  </si>
+  <si>
+    <t>product id</t>
+  </si>
+  <si>
+    <t>order number</t>
+  </si>
+  <si>
+    <t>custom price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>payment method</t>
+  </si>
+  <si>
+    <t>timthomas@gmail.com</t>
+  </si>
+  <si>
+    <t>Treat</t>
+  </si>
+  <si>
+    <t>gruopName</t>
+  </si>
+  <si>
+    <t>Team4 - Sweden</t>
+  </si>
+  <si>
+    <t>Cash On Delivery</t>
+  </si>
+  <si>
+    <t>4200000028</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,10 +506,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0"/>
+    <col min="2" max="2" customWidth="true" width="17.83203125"/>
+    <col min="3" max="3" customWidth="true" width="27.33203125"/>
+    <col min="4" max="4" customWidth="true" width="29.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -531,11 +569,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625"/>
+    <col min="2" max="2" customWidth="true" width="41.6640625"/>
+    <col min="3" max="3" customWidth="true" style="2" width="44.33203125"/>
+    <col min="4" max="4" customWidth="true" width="37.33203125"/>
+    <col min="5" max="5" customWidth="true" width="30.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -591,16 +629,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF55836-3148-6446-A726-A223595C7CAA}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="25.5"/>
+    <col min="2" max="2" customWidth="true" width="20.5"/>
+    <col min="3" max="3" customWidth="true" width="18.0"/>
+    <col min="4" max="4" customWidth="true" width="18.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -676,4 +714,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E95EB65-48C0-A444-9AE5-5E8E0FE92B8F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.0"/>
+    <col min="3" max="3" customWidth="true" width="13.5"/>
+    <col min="6" max="6" customWidth="true" width="12.5"/>
+    <col min="7" max="7" customWidth="true" width="18.83203125"/>
+    <col min="8" max="8" customWidth="true" width="19.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>1188</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/gulbahar.xlsx
+++ b/testdata/gulbahar.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>firstname</t>
   </si>
@@ -172,6 +172,30 @@
   </si>
   <si>
     <t>4200000028</t>
+  </si>
+  <si>
+    <t>4200000030</t>
+  </si>
+  <si>
+    <t>4200000031</t>
+  </si>
+  <si>
+    <t>4200000032</t>
+  </si>
+  <si>
+    <t>4200000033</t>
+  </si>
+  <si>
+    <t>4200000035</t>
+  </si>
+  <si>
+    <t>4200000036</t>
+  </si>
+  <si>
+    <t>4200000037</t>
+  </si>
+  <si>
+    <t>4200000038</t>
   </si>
 </sst>
 </file>
@@ -782,7 +806,7 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/gulbahar.xlsx
+++ b/testdata/gulbahar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guliabdurahman/IdeaProjects/AdobeMagento_eCommercePlatformTestAutomation/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED1FB6-D772-F047-8A17-D4CF3BBCBE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555209A-25FE-0544-89E9-2E7CEF9F8E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34560" yWindow="940" windowWidth="19200" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>firstname</t>
   </si>
@@ -171,31 +171,58 @@
     <t>Cash On Delivery</t>
   </si>
   <si>
-    <t>4200000028</t>
-  </si>
-  <si>
-    <t>4200000030</t>
-  </si>
-  <si>
-    <t>4200000031</t>
-  </si>
-  <si>
-    <t>4200000032</t>
-  </si>
-  <si>
-    <t>4200000033</t>
-  </si>
-  <si>
-    <t>4200000035</t>
-  </si>
-  <si>
-    <t>4200000036</t>
-  </si>
-  <si>
-    <t>4200000037</t>
-  </si>
-  <si>
-    <t>4200000038</t>
+    <t>4200000082</t>
+  </si>
+  <si>
+    <t>4200000083</t>
+  </si>
+  <si>
+    <t>4200000084</t>
+  </si>
+  <si>
+    <t>4200000090</t>
+  </si>
+  <si>
+    <t>4200000091</t>
+  </si>
+  <si>
+    <t>4200000096</t>
+  </si>
+  <si>
+    <t>4200000097</t>
+  </si>
+  <si>
+    <t>4200000098</t>
+  </si>
+  <si>
+    <t>4200000099</t>
+  </si>
+  <si>
+    <t>4200000100</t>
+  </si>
+  <si>
+    <t>4200000101</t>
+  </si>
+  <si>
+    <t>4200000102</t>
+  </si>
+  <si>
+    <t>4200000103</t>
+  </si>
+  <si>
+    <t>4200000104</t>
+  </si>
+  <si>
+    <t>4200000105</t>
+  </si>
+  <si>
+    <t>4200000106</t>
+  </si>
+  <si>
+    <t>4200000107</t>
+  </si>
+  <si>
+    <t>4200000108</t>
   </si>
 </sst>
 </file>
@@ -745,7 +772,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -754,7 +781,7 @@
     <col min="3" max="3" customWidth="true" width="13.5"/>
     <col min="6" max="6" customWidth="true" width="12.5"/>
     <col min="7" max="7" customWidth="true" width="18.83203125"/>
-    <col min="8" max="8" customWidth="true" width="19.5"/>
+    <col min="8" max="8" customWidth="true" style="2" width="19.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -779,7 +806,7 @@
       <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -806,7 +833,7 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
